--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel20/field_16ha_100ha_10%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel20/field_16ha_100ha_10%_12m_0_LM/Planilha_Unificada.xlsx
@@ -1602,28 +1602,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>85.31253264389113</v>
+        <v>119.8460038258246</v>
       </c>
       <c r="AB2" t="n">
-        <v>116.7283708866345</v>
+        <v>163.9785896669569</v>
       </c>
       <c r="AC2" t="n">
-        <v>105.5879789985419</v>
+        <v>148.3287032145839</v>
       </c>
       <c r="AD2" t="n">
-        <v>85312.53264389113</v>
+        <v>119846.0038258246</v>
       </c>
       <c r="AE2" t="n">
-        <v>116728.3708866345</v>
+        <v>163978.5896669569</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.964018347193361e-06</v>
+        <v>5.714784188458738e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.669270833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>105587.9789985419</v>
+        <v>148328.7032145839</v>
       </c>
     </row>
     <row r="3">
@@ -1708,28 +1708,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>72.61005897604417</v>
+        <v>107.0581893034061</v>
       </c>
       <c r="AB3" t="n">
-        <v>99.34828602070738</v>
+        <v>146.4817376788321</v>
       </c>
       <c r="AC3" t="n">
-        <v>89.86662503911097</v>
+        <v>132.5017262232142</v>
       </c>
       <c r="AD3" t="n">
-        <v>72610.05897604417</v>
+        <v>107058.189303406</v>
       </c>
       <c r="AE3" t="n">
-        <v>99348.28602070738</v>
+        <v>146481.7376788321</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.486844793864291e-06</v>
+        <v>6.468524471436634e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.770833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>89866.62503911096</v>
+        <v>132501.7262232142</v>
       </c>
     </row>
   </sheetData>
@@ -2005,28 +2005,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>71.25404993584604</v>
+        <v>104.8384033012861</v>
       </c>
       <c r="AB2" t="n">
-        <v>97.49293462901247</v>
+        <v>143.4445285406862</v>
       </c>
       <c r="AC2" t="n">
-        <v>88.18834578023677</v>
+        <v>129.7543840624622</v>
       </c>
       <c r="AD2" t="n">
-        <v>71254.04993584604</v>
+        <v>104838.4033012861</v>
       </c>
       <c r="AE2" t="n">
-        <v>97492.93462901247</v>
+        <v>143444.5285406862</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.562860692362493e-06</v>
+        <v>6.679856403577379e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.888020833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>88188.34578023678</v>
+        <v>129754.3840624622</v>
       </c>
     </row>
     <row r="3">
@@ -2111,28 +2111,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>70.1469506368822</v>
+        <v>103.7313040023222</v>
       </c>
       <c r="AB3" t="n">
-        <v>95.97815252639691</v>
+        <v>141.9297464380707</v>
       </c>
       <c r="AC3" t="n">
-        <v>86.81813235548432</v>
+        <v>128.3841706377097</v>
       </c>
       <c r="AD3" t="n">
-        <v>70146.95063688219</v>
+        <v>103731.3040023222</v>
       </c>
       <c r="AE3" t="n">
-        <v>95978.15252639691</v>
+        <v>141929.7464380707</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.728167384042021e-06</v>
+        <v>6.921859181531565e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.653645833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>86818.13235548433</v>
+        <v>128384.1706377097</v>
       </c>
     </row>
   </sheetData>
@@ -2408,28 +2408,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>63.54865648247988</v>
+        <v>86.93586353977075</v>
       </c>
       <c r="AB2" t="n">
-        <v>86.95007536815461</v>
+        <v>118.9494838346806</v>
       </c>
       <c r="AC2" t="n">
-        <v>78.65168221023599</v>
+        <v>107.5971120441787</v>
       </c>
       <c r="AD2" t="n">
-        <v>63548.65648247988</v>
+        <v>86935.86353977075</v>
       </c>
       <c r="AE2" t="n">
-        <v>86950.07536815462</v>
+        <v>118949.4838346806</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.3401264680075e-06</v>
+        <v>8.261834793384422e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.575520833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>78651.68221023599</v>
+        <v>107597.1120441787</v>
       </c>
     </row>
   </sheetData>
@@ -2705,28 +2705,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>65.86005271451319</v>
+        <v>89.83919790372605</v>
       </c>
       <c r="AB2" t="n">
-        <v>90.112629664426</v>
+        <v>122.9219539975145</v>
       </c>
       <c r="AC2" t="n">
-        <v>81.51240676314504</v>
+        <v>111.1904552300699</v>
       </c>
       <c r="AD2" t="n">
-        <v>65860.05271451319</v>
+        <v>89839.19790372605</v>
       </c>
       <c r="AE2" t="n">
-        <v>90112.629664426</v>
+        <v>122921.9539975145</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.180027083360262e-06</v>
+        <v>7.828543687435252e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.484375</v>
       </c>
       <c r="AH2" t="n">
-        <v>81512.40676314503</v>
+        <v>111190.4552300699</v>
       </c>
     </row>
   </sheetData>
@@ -3002,28 +3002,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>61.88541162328531</v>
+        <v>92.03531731727789</v>
       </c>
       <c r="AB2" t="n">
-        <v>84.67435037462127</v>
+        <v>125.9267814650853</v>
       </c>
       <c r="AC2" t="n">
-        <v>76.59314921608464</v>
+        <v>113.9085061814386</v>
       </c>
       <c r="AD2" t="n">
-        <v>61885.41162328531</v>
+        <v>92035.31731727789</v>
       </c>
       <c r="AE2" t="n">
-        <v>84674.35037462127</v>
+        <v>125926.7814650853</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.340659515834825e-06</v>
+        <v>8.440848225285501e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.822916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>76593.14921608464</v>
+        <v>113908.5061814386</v>
       </c>
     </row>
   </sheetData>
@@ -3299,28 +3299,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>80.79355163714116</v>
+        <v>106.2161891030129</v>
       </c>
       <c r="AB2" t="n">
-        <v>110.5453017098307</v>
+        <v>145.3296758582276</v>
       </c>
       <c r="AC2" t="n">
-        <v>99.9950132659781</v>
+        <v>131.4596155658388</v>
       </c>
       <c r="AD2" t="n">
-        <v>80793.55163714116</v>
+        <v>106216.1891030129</v>
       </c>
       <c r="AE2" t="n">
-        <v>110545.3017098307</v>
+        <v>145329.6758582276</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.445130749892899e-06</v>
+        <v>6.480495172674336e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.005208333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>99995.01326597811</v>
+        <v>131459.6155658388</v>
       </c>
     </row>
     <row r="3">
@@ -3405,28 +3405,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>70.84016636542218</v>
+        <v>104.6515561206114</v>
       </c>
       <c r="AB3" t="n">
-        <v>96.92664086870435</v>
+        <v>143.1888759849715</v>
       </c>
       <c r="AC3" t="n">
-        <v>87.67609830161403</v>
+        <v>129.5231306278541</v>
       </c>
       <c r="AD3" t="n">
-        <v>70840.16636542218</v>
+        <v>104651.5561206114</v>
       </c>
       <c r="AE3" t="n">
-        <v>96926.64086870436</v>
+        <v>143188.8759849715</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.664134063988151e-06</v>
+        <v>6.79977710151932e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.6796875</v>
       </c>
       <c r="AH3" t="n">
-        <v>87676.09830161404</v>
+        <v>129523.1306278541</v>
       </c>
     </row>
   </sheetData>
@@ -3702,28 +3702,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>68.59181587678145</v>
+        <v>90.8979913284636</v>
       </c>
       <c r="AB2" t="n">
-        <v>93.85034853992461</v>
+        <v>124.3706418719089</v>
       </c>
       <c r="AC2" t="n">
-        <v>84.89340299508866</v>
+        <v>112.5008823669788</v>
       </c>
       <c r="AD2" t="n">
-        <v>68591.81587678146</v>
+        <v>90897.9913284636</v>
       </c>
       <c r="AE2" t="n">
-        <v>93850.34853992461</v>
+        <v>124370.6418719089</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.24316087787795e-06</v>
+        <v>8.400775332675921e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.109375</v>
       </c>
       <c r="AH2" t="n">
-        <v>84893.40299508866</v>
+        <v>112500.8823669788</v>
       </c>
     </row>
   </sheetData>
@@ -3999,28 +3999,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>67.89348166337726</v>
+        <v>92.50786878327507</v>
       </c>
       <c r="AB2" t="n">
-        <v>92.89485686081431</v>
+        <v>126.5733472283616</v>
       </c>
       <c r="AC2" t="n">
-        <v>84.02910210079135</v>
+        <v>114.4933646157288</v>
       </c>
       <c r="AD2" t="n">
-        <v>67893.48166337726</v>
+        <v>92507.86878327507</v>
       </c>
       <c r="AE2" t="n">
-        <v>92894.85686081431</v>
+        <v>126573.3472283616</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.999824890084476e-06</v>
+        <v>7.423955974880545e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.484375</v>
       </c>
       <c r="AH2" t="n">
-        <v>84029.10210079135</v>
+        <v>114493.3646157288</v>
       </c>
     </row>
     <row r="3">
@@ -4105,28 +4105,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>67.93816122042092</v>
+        <v>92.55254834031874</v>
       </c>
       <c r="AB3" t="n">
-        <v>92.95598940188437</v>
+        <v>126.6344797694317</v>
       </c>
       <c r="AC3" t="n">
-        <v>84.08440023794176</v>
+        <v>114.5486627528792</v>
       </c>
       <c r="AD3" t="n">
-        <v>67938.16122042092</v>
+        <v>92552.54834031874</v>
       </c>
       <c r="AE3" t="n">
-        <v>92955.98940188436</v>
+        <v>126634.4797694317</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.999003904860873e-06</v>
+        <v>7.422736940556335e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.484375</v>
       </c>
       <c r="AH3" t="n">
-        <v>84084.40023794177</v>
+        <v>114548.6627528792</v>
       </c>
     </row>
   </sheetData>
@@ -4402,28 +4402,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>70.82131330843087</v>
+        <v>104.1699969404456</v>
       </c>
       <c r="AB2" t="n">
-        <v>96.90084528439073</v>
+        <v>142.5299854697773</v>
       </c>
       <c r="AC2" t="n">
-        <v>87.65276461166295</v>
+        <v>128.9271236986712</v>
       </c>
       <c r="AD2" t="n">
-        <v>70821.31330843088</v>
+        <v>104169.9969404456</v>
       </c>
       <c r="AE2" t="n">
-        <v>96900.84528439073</v>
+        <v>142529.9854697773</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.59486584512384e-06</v>
+        <v>6.756485924629046e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.901041666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>87652.76461166295</v>
+        <v>128927.1236986712</v>
       </c>
     </row>
     <row r="3">
@@ -4508,28 +4508,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>69.32257223281324</v>
+        <v>94.48343145232462</v>
       </c>
       <c r="AB3" t="n">
-        <v>94.85020162494196</v>
+        <v>129.2763992278277</v>
       </c>
       <c r="AC3" t="n">
-        <v>85.79783150497485</v>
+        <v>116.938441126124</v>
       </c>
       <c r="AD3" t="n">
-        <v>69322.57223281324</v>
+        <v>94483.43145232463</v>
       </c>
       <c r="AE3" t="n">
-        <v>94850.20162494195</v>
+        <v>129276.3992278277</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.846083013201708e-06</v>
+        <v>7.125886320060513e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.549479166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>85797.83150497485</v>
+        <v>116938.441126124</v>
       </c>
     </row>
   </sheetData>
@@ -4805,28 +4805,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>83.75570138249788</v>
+        <v>117.9130900152219</v>
       </c>
       <c r="AB2" t="n">
-        <v>114.5982456722495</v>
+        <v>161.3338917171526</v>
       </c>
       <c r="AC2" t="n">
-        <v>103.6611499449675</v>
+        <v>145.9364115252512</v>
       </c>
       <c r="AD2" t="n">
-        <v>83755.70138249788</v>
+        <v>117913.0900152219</v>
       </c>
       <c r="AE2" t="n">
-        <v>114598.2456722495</v>
+        <v>161333.8917171526</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.111512166436841e-06</v>
+        <v>5.948422763221293e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.447916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>103661.1499449675</v>
+        <v>145936.4115252512</v>
       </c>
     </row>
     <row r="3">
@@ -4911,28 +4911,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>72.07822423464246</v>
+        <v>106.3208642133871</v>
       </c>
       <c r="AB3" t="n">
-        <v>98.62060626462907</v>
+        <v>145.4728969621815</v>
       </c>
       <c r="AC3" t="n">
-        <v>89.20839401764761</v>
+        <v>131.5891678486435</v>
       </c>
       <c r="AD3" t="n">
-        <v>72078.22423464246</v>
+        <v>106320.8642133871</v>
       </c>
       <c r="AE3" t="n">
-        <v>98620.60626462908</v>
+        <v>145472.8969621815</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.526806681711758e-06</v>
+        <v>6.549259450089996e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.770833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>89208.3940176476</v>
+        <v>131589.1678486435</v>
       </c>
     </row>
   </sheetData>
@@ -5208,28 +5208,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>66.66037584659961</v>
+        <v>90.86255220017551</v>
       </c>
       <c r="AB2" t="n">
-        <v>91.20766708151076</v>
+        <v>124.3221524931212</v>
       </c>
       <c r="AC2" t="n">
-        <v>82.50293534603826</v>
+        <v>112.4570207464473</v>
       </c>
       <c r="AD2" t="n">
-        <v>66660.37584659961</v>
+        <v>90862.55220017552</v>
       </c>
       <c r="AE2" t="n">
-        <v>91207.66708151076</v>
+        <v>124322.1524931212</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.099822861928906e-06</v>
+        <v>7.658325526061617e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.497395833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>82502.93534603826</v>
+        <v>112457.0207464473</v>
       </c>
     </row>
   </sheetData>
@@ -5505,28 +5505,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>64.37838396827279</v>
+        <v>88.03830079908539</v>
       </c>
       <c r="AB2" t="n">
-        <v>88.08534511920914</v>
+        <v>120.4578871289734</v>
       </c>
       <c r="AC2" t="n">
-        <v>79.6786034096113</v>
+        <v>108.9615554451221</v>
       </c>
       <c r="AD2" t="n">
-        <v>64378.38396827278</v>
+        <v>88038.30079908539</v>
       </c>
       <c r="AE2" t="n">
-        <v>88085.34511920913</v>
+        <v>120457.8871289734</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.279712148185133e-06</v>
+        <v>8.097741342310304e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.536458333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>79678.6034096113</v>
+        <v>108961.5554451221</v>
       </c>
     </row>
   </sheetData>
@@ -8815,28 +8815,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>62.78250781388493</v>
+        <v>93.37020731967851</v>
       </c>
       <c r="AB2" t="n">
-        <v>85.90179695968976</v>
+        <v>127.7532368575595</v>
       </c>
       <c r="AC2" t="n">
-        <v>77.70345002180667</v>
+        <v>115.5606472347018</v>
       </c>
       <c r="AD2" t="n">
-        <v>62782.50781388493</v>
+        <v>93370.20731967852</v>
       </c>
       <c r="AE2" t="n">
-        <v>85901.79695968976</v>
+        <v>127753.2368575595</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.337919053583533e-06</v>
+        <v>8.340393228819657e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.692708333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>77703.45002180667</v>
+        <v>115560.6472347018</v>
       </c>
     </row>
   </sheetData>
@@ -9112,28 +9112,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>67.65687101432982</v>
+        <v>96.82389565098822</v>
       </c>
       <c r="AB2" t="n">
-        <v>92.57111573226267</v>
+        <v>132.4787255984308</v>
       </c>
       <c r="AC2" t="n">
-        <v>83.73625837117503</v>
+        <v>119.835141962411</v>
       </c>
       <c r="AD2" t="n">
-        <v>67656.87101432982</v>
+        <v>96823.89565098823</v>
       </c>
       <c r="AE2" t="n">
-        <v>92571.11573226267</v>
+        <v>132478.7255984308</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.003731525418521e-06</v>
+        <v>8.15446184339273e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.65625</v>
       </c>
       <c r="AH2" t="n">
-        <v>83736.25837117502</v>
+        <v>119835.141962411</v>
       </c>
     </row>
   </sheetData>
@@ -9409,28 +9409,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>68.87788721810439</v>
+        <v>93.85481499033926</v>
       </c>
       <c r="AB2" t="n">
-        <v>94.24176396969929</v>
+        <v>128.4162984519387</v>
       </c>
       <c r="AC2" t="n">
-        <v>85.24746228560078</v>
+        <v>116.1604271611265</v>
       </c>
       <c r="AD2" t="n">
-        <v>68877.88721810438</v>
+        <v>93854.81499033926</v>
       </c>
       <c r="AE2" t="n">
-        <v>94241.7639696993</v>
+        <v>128416.2984519387</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.865976495853119e-06</v>
+        <v>7.188900271428072e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.588541666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>85247.46228560078</v>
+        <v>116160.4271611265</v>
       </c>
     </row>
     <row r="3">
@@ -9515,28 +9515,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>68.63923368593464</v>
+        <v>93.61616145816951</v>
       </c>
       <c r="AB3" t="n">
-        <v>93.91522767833406</v>
+        <v>128.0897621605735</v>
       </c>
       <c r="AC3" t="n">
-        <v>84.95209015958677</v>
+        <v>115.8650550351125</v>
       </c>
       <c r="AD3" t="n">
-        <v>68639.23368593464</v>
+        <v>93616.16145816952</v>
       </c>
       <c r="AE3" t="n">
-        <v>93915.22767833406</v>
+        <v>128089.7621605735</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.918636873918535e-06</v>
+        <v>7.266699703153771e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.5234375</v>
       </c>
       <c r="AH3" t="n">
-        <v>84952.09015958678</v>
+        <v>115865.0550351125</v>
       </c>
     </row>
   </sheetData>
@@ -9812,28 +9812,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>82.06809562859281</v>
+        <v>107.6551336592634</v>
       </c>
       <c r="AB2" t="n">
-        <v>112.2891890278464</v>
+        <v>147.2985032818421</v>
       </c>
       <c r="AC2" t="n">
-        <v>101.5724664259242</v>
+        <v>133.2405408634109</v>
       </c>
       <c r="AD2" t="n">
-        <v>82068.09562859281</v>
+        <v>107655.1336592634</v>
       </c>
       <c r="AE2" t="n">
-        <v>112289.1890278464</v>
+        <v>147298.5032818421</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.303426813940142e-06</v>
+        <v>6.249303080230101e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.174479166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>101572.4664259242</v>
+        <v>133240.5408634109</v>
       </c>
     </row>
     <row r="3">
@@ -9918,28 +9918,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>71.34459662386871</v>
+        <v>105.3751871321232</v>
       </c>
       <c r="AB3" t="n">
-        <v>97.61682460220298</v>
+        <v>144.1789798592686</v>
       </c>
       <c r="AC3" t="n">
-        <v>88.30041186826672</v>
+        <v>130.4187403780081</v>
       </c>
       <c r="AD3" t="n">
-        <v>71344.59662386871</v>
+        <v>105375.1871321232</v>
       </c>
       <c r="AE3" t="n">
-        <v>97616.82460220298</v>
+        <v>144178.9798592686</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.621017373641883e-06</v>
+        <v>6.710498250685183e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.6796875</v>
       </c>
       <c r="AH3" t="n">
-        <v>88300.41186826672</v>
+        <v>130418.7403780081</v>
       </c>
     </row>
   </sheetData>
@@ -10215,28 +10215,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>74.08170610005176</v>
+        <v>109.5746850967852</v>
       </c>
       <c r="AB2" t="n">
-        <v>101.3618585402625</v>
+        <v>149.9249182432908</v>
       </c>
       <c r="AC2" t="n">
-        <v>91.6880250234672</v>
+        <v>135.6162944671362</v>
       </c>
       <c r="AD2" t="n">
-        <v>74081.70610005176</v>
+        <v>109574.6850967852</v>
       </c>
       <c r="AE2" t="n">
-        <v>101361.8585402625</v>
+        <v>149924.9182432908</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.448547006643376e-06</v>
+        <v>7.415462819906456e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.919270833333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>91688.0250234672</v>
+        <v>135616.2944671362</v>
       </c>
     </row>
   </sheetData>
@@ -10512,28 +10512,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>65.12584050019173</v>
+        <v>88.86821208161847</v>
       </c>
       <c r="AB2" t="n">
-        <v>89.10804812163501</v>
+        <v>121.5934083588363</v>
       </c>
       <c r="AC2" t="n">
-        <v>80.60370107285866</v>
+        <v>109.9887041225213</v>
       </c>
       <c r="AD2" t="n">
-        <v>65125.84050019173</v>
+        <v>88868.21208161846</v>
       </c>
       <c r="AE2" t="n">
-        <v>89108.048121635</v>
+        <v>121593.4083588363</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.239857694837676e-06</v>
+        <v>7.974574122653609e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.497395833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>80603.70107285866</v>
+        <v>109988.7041225213</v>
       </c>
     </row>
   </sheetData>
@@ -10809,28 +10809,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>67.3343753592453</v>
+        <v>91.91837967291016</v>
       </c>
       <c r="AB2" t="n">
-        <v>92.12986294947207</v>
+        <v>125.7667822211367</v>
       </c>
       <c r="AC2" t="n">
-        <v>83.33711813467164</v>
+        <v>113.763777040772</v>
       </c>
       <c r="AD2" t="n">
-        <v>67334.3753592453</v>
+        <v>91918.37967291016</v>
       </c>
       <c r="AE2" t="n">
-        <v>92129.86294947207</v>
+        <v>125766.7822211367</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.026923866004992e-06</v>
+        <v>7.504748397590012e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.510416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>83337.11813467165</v>
+        <v>113763.777040772</v>
       </c>
     </row>
   </sheetData>
